--- a/data/pca/factorExposure/factorExposure_2017-03-27.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-03-27.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01507940782135841</v>
+        <v>0.01060360987540029</v>
       </c>
       <c r="C2">
-        <v>-0.01822472118476272</v>
+        <v>-0.0402040111764135</v>
       </c>
       <c r="D2">
-        <v>0.03105207660938539</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.02947476744094191</v>
+      </c>
+      <c r="E2">
+        <v>-0.03808097888412097</v>
+      </c>
+      <c r="F2">
+        <v>0.003010275355338572</v>
+      </c>
+      <c r="G2">
+        <v>0.1033929917770272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01973625885954362</v>
+        <v>0.04051287000599229</v>
       </c>
       <c r="C3">
-        <v>0.001646697330633634</v>
+        <v>-0.1008487612265852</v>
       </c>
       <c r="D3">
-        <v>0.09118474481939318</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.01815934743387523</v>
+      </c>
+      <c r="E3">
+        <v>-0.1037949805160759</v>
+      </c>
+      <c r="F3">
+        <v>0.001157873265177663</v>
+      </c>
+      <c r="G3">
+        <v>0.1598067326157279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02858211288344417</v>
+        <v>0.05597329920075025</v>
       </c>
       <c r="C4">
-        <v>-0.007097559863526011</v>
+        <v>-0.06863694091501744</v>
       </c>
       <c r="D4">
-        <v>0.07875496653487817</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.02469269252256541</v>
+      </c>
+      <c r="E4">
+        <v>-0.03466171418358335</v>
+      </c>
+      <c r="F4">
+        <v>0.008270992386983592</v>
+      </c>
+      <c r="G4">
+        <v>0.1000822884704868</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01361696822948927</v>
+        <v>0.03620028836228202</v>
       </c>
       <c r="C6">
-        <v>-0.008706132202282297</v>
+        <v>-0.05068175243437236</v>
       </c>
       <c r="D6">
-        <v>0.07559012358609847</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01731287562753627</v>
+      </c>
+      <c r="E6">
+        <v>-0.04032874005067392</v>
+      </c>
+      <c r="F6">
+        <v>0.004375873636037014</v>
+      </c>
+      <c r="G6">
+        <v>0.08778946704766545</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.004833090178653113</v>
+        <v>0.02065239898992871</v>
       </c>
       <c r="C7">
-        <v>-0.01036720379625701</v>
+        <v>-0.03934878569458227</v>
       </c>
       <c r="D7">
-        <v>0.03678676724239622</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.0140399306115563</v>
+      </c>
+      <c r="E7">
+        <v>-0.008844484756978778</v>
+      </c>
+      <c r="F7">
+        <v>-0.004905980735578457</v>
+      </c>
+      <c r="G7">
+        <v>0.1230252808392528</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.003714003904958655</v>
+        <v>0.002444985436139715</v>
       </c>
       <c r="C8">
-        <v>-0.003424308710539606</v>
+        <v>-0.02374139029508138</v>
       </c>
       <c r="D8">
-        <v>-0.004324460071521247</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.003899671179884714</v>
+      </c>
+      <c r="E8">
+        <v>-0.03171643791013875</v>
+      </c>
+      <c r="F8">
+        <v>0.004586127065610675</v>
+      </c>
+      <c r="G8">
+        <v>0.0704583414650775</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01447763174545417</v>
+        <v>0.0342685289383908</v>
       </c>
       <c r="C9">
-        <v>-0.006958570304459922</v>
+        <v>-0.04978810175482973</v>
       </c>
       <c r="D9">
-        <v>0.05761898502574918</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.01644503780510103</v>
+      </c>
+      <c r="E9">
+        <v>-0.02417093863313076</v>
+      </c>
+      <c r="F9">
+        <v>0.006046321331948667</v>
+      </c>
+      <c r="G9">
+        <v>0.1002296977869644</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1393159629465644</v>
+        <v>0.09850450381465858</v>
       </c>
       <c r="C10">
-        <v>0.1061644537762031</v>
+        <v>0.1840472981967943</v>
       </c>
       <c r="D10">
-        <v>-0.1108616072817905</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.0154907499844063</v>
+      </c>
+      <c r="E10">
+        <v>-0.02161412238350185</v>
+      </c>
+      <c r="F10">
+        <v>-0.0213491506937629</v>
+      </c>
+      <c r="G10">
+        <v>0.05778128432163952</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.002511695246642963</v>
+        <v>0.03445098708063098</v>
       </c>
       <c r="C11">
-        <v>0.000647490037012207</v>
+        <v>-0.05306984751295481</v>
       </c>
       <c r="D11">
-        <v>0.05219107160043204</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.002578688663929274</v>
+      </c>
+      <c r="E11">
+        <v>-0.01886321243301316</v>
+      </c>
+      <c r="F11">
+        <v>0.01796685775486546</v>
+      </c>
+      <c r="G11">
+        <v>0.09055731026521328</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.004832863674881279</v>
+        <v>0.03594072423982362</v>
       </c>
       <c r="C12">
-        <v>-0.003622004761618524</v>
+        <v>-0.04781089438189513</v>
       </c>
       <c r="D12">
-        <v>0.04507264901766382</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.006721517713295553</v>
+      </c>
+      <c r="E12">
+        <v>-0.01044287370856529</v>
+      </c>
+      <c r="F12">
+        <v>0.0007984875464944069</v>
+      </c>
+      <c r="G12">
+        <v>0.08219635317900784</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.0181604323052085</v>
+        <v>0.0153270436981239</v>
       </c>
       <c r="C13">
-        <v>-0.01291001233564053</v>
+        <v>-0.04174132292557658</v>
       </c>
       <c r="D13">
-        <v>0.03556155258411305</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.02663999299685099</v>
+      </c>
+      <c r="E13">
+        <v>-0.03963019397035523</v>
+      </c>
+      <c r="F13">
+        <v>0.0005434997060681472</v>
+      </c>
+      <c r="G13">
+        <v>0.1409836612208917</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.003823843315409951</v>
+        <v>0.008003745933768416</v>
       </c>
       <c r="C14">
-        <v>-0.00570408623443659</v>
+        <v>-0.02815487759376669</v>
       </c>
       <c r="D14">
-        <v>0.01893936714657592</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.01027090184013136</v>
+      </c>
+      <c r="E14">
+        <v>-0.009364440824003081</v>
+      </c>
+      <c r="F14">
+        <v>-0.00824528471322732</v>
+      </c>
+      <c r="G14">
+        <v>0.1073666448485547</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.005778432951435051</v>
+        <v>0.0330693255744868</v>
       </c>
       <c r="C16">
-        <v>0.003257297666862268</v>
+        <v>-0.04622003202603608</v>
       </c>
       <c r="D16">
-        <v>0.04139824717249387</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.002055226310073996</v>
+      </c>
+      <c r="E16">
+        <v>-0.01620812839718477</v>
+      </c>
+      <c r="F16">
+        <v>-0.0004253322837680689</v>
+      </c>
+      <c r="G16">
+        <v>0.09243089860463669</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01113601400105205</v>
+        <v>0.02232952435045963</v>
       </c>
       <c r="C19">
-        <v>-0.007885071963272814</v>
+        <v>-0.05115537597741879</v>
       </c>
       <c r="D19">
-        <v>0.03947077347311499</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.01954793818251673</v>
+      </c>
+      <c r="E19">
+        <v>-0.08363615628457191</v>
+      </c>
+      <c r="F19">
+        <v>0.01621739488756869</v>
+      </c>
+      <c r="G19">
+        <v>0.1391476174022514</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.005002929107618226</v>
+        <v>0.01547581101243461</v>
       </c>
       <c r="C20">
-        <v>-0.009379234754943956</v>
+        <v>-0.04168882280792221</v>
       </c>
       <c r="D20">
-        <v>0.0331016324995644</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.0143598095920986</v>
+      </c>
+      <c r="E20">
+        <v>-0.03976318507560913</v>
+      </c>
+      <c r="F20">
+        <v>-0.01510663430984686</v>
+      </c>
+      <c r="G20">
+        <v>0.1112933159134056</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01284379997167302</v>
+        <v>0.01160956631363278</v>
       </c>
       <c r="C21">
-        <v>-0.006558240809792329</v>
+        <v>-0.0384446281765367</v>
       </c>
       <c r="D21">
-        <v>0.0199015627840589</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.01944451027626087</v>
+      </c>
+      <c r="E21">
+        <v>-0.05289591619087915</v>
+      </c>
+      <c r="F21">
+        <v>-0.003156446588274725</v>
+      </c>
+      <c r="G21">
+        <v>0.1388936675835085</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001774309444204724</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.0001039750177356545</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.0007429028096794149</v>
+      </c>
+      <c r="E22">
+        <v>-0.005482454269882408</v>
+      </c>
+      <c r="F22">
+        <v>0.002172549800550159</v>
+      </c>
+      <c r="G22">
+        <v>0.007466324339100831</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.001779809888868169</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.0001157403920429866</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.0007416982256814292</v>
+      </c>
+      <c r="E23">
+        <v>-0.00546885376500272</v>
+      </c>
+      <c r="F23">
+        <v>0.002178861152132523</v>
+      </c>
+      <c r="G23">
+        <v>0.0073592124960799</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.0006702493899363585</v>
+        <v>0.02822921100626237</v>
       </c>
       <c r="C24">
-        <v>-0.006892859313365149</v>
+        <v>-0.05079062905084306</v>
       </c>
       <c r="D24">
-        <v>0.04484846053685945</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.007362508635521662</v>
+      </c>
+      <c r="E24">
+        <v>-0.01377960716206345</v>
+      </c>
+      <c r="F24">
+        <v>0.01028175477332047</v>
+      </c>
+      <c r="G24">
+        <v>0.09125454077659706</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01637394381128715</v>
+        <v>0.04230082484636091</v>
       </c>
       <c r="C25">
-        <v>-0.001282062096364422</v>
+        <v>-0.05788779964589912</v>
       </c>
       <c r="D25">
-        <v>0.05838403943937136</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.01141534795090227</v>
+      </c>
+      <c r="E25">
+        <v>-0.005659919169355739</v>
+      </c>
+      <c r="F25">
+        <v>0.003541224225103266</v>
+      </c>
+      <c r="G25">
+        <v>0.09914007657694344</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.01255592073901978</v>
+        <v>0.01358961195299849</v>
       </c>
       <c r="C26">
-        <v>-0.01784170001335181</v>
+        <v>-0.01267756178566294</v>
       </c>
       <c r="D26">
-        <v>0.000733411794961814</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02430155288574611</v>
+      </c>
+      <c r="E26">
+        <v>-0.01045491730827531</v>
+      </c>
+      <c r="F26">
+        <v>-0.007863206768354333</v>
+      </c>
+      <c r="G26">
+        <v>0.08363813177447552</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1905648637958279</v>
+        <v>0.1260452450670977</v>
       </c>
       <c r="C28">
-        <v>0.1274138064940515</v>
+        <v>0.2408547136528767</v>
       </c>
       <c r="D28">
-        <v>-0.1428682715839836</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.006636377606795346</v>
+      </c>
+      <c r="E28">
+        <v>-0.01004285661475798</v>
+      </c>
+      <c r="F28">
+        <v>-0.01643133635417516</v>
+      </c>
+      <c r="G28">
+        <v>0.04859394876928253</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.009064477157880791</v>
+        <v>0.008548055990672203</v>
       </c>
       <c r="C29">
-        <v>-0.001604693606364793</v>
+        <v>-0.0225831071984238</v>
       </c>
       <c r="D29">
-        <v>0.01684924443023289</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.009419548754142484</v>
+      </c>
+      <c r="E29">
+        <v>-0.006486818728371911</v>
+      </c>
+      <c r="F29">
+        <v>-0.0142912417210614</v>
+      </c>
+      <c r="G29">
+        <v>0.09907862820863045</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.01298265713393496</v>
+        <v>0.04160532013871453</v>
       </c>
       <c r="C30">
-        <v>-0.02052392501230538</v>
+        <v>-0.06842492318474876</v>
       </c>
       <c r="D30">
-        <v>0.09875744761020605</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.02912026465974742</v>
+      </c>
+      <c r="E30">
+        <v>-0.0627344544725201</v>
+      </c>
+      <c r="F30">
+        <v>0.0414137778099507</v>
+      </c>
+      <c r="G30">
+        <v>0.135109445438721</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.02599333740460203</v>
+        <v>0.05330702884149813</v>
       </c>
       <c r="C31">
-        <v>0.01254791287162203</v>
+        <v>-0.03819695984830768</v>
       </c>
       <c r="D31">
-        <v>0.02892418734564807</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.003812417771145685</v>
+      </c>
+      <c r="E31">
+        <v>0.0004504485036788409</v>
+      </c>
+      <c r="F31">
+        <v>-0.04101616226969431</v>
+      </c>
+      <c r="G31">
+        <v>0.09820534157538685</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.0006702023680689528</v>
+        <v>0.001902974072115658</v>
       </c>
       <c r="C32">
-        <v>0.009787088420526394</v>
+        <v>-0.02280736698540151</v>
       </c>
       <c r="D32">
-        <v>-0.001184987321783928</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.002758209682978529</v>
+      </c>
+      <c r="E32">
+        <v>-0.03820601224771761</v>
+      </c>
+      <c r="F32">
+        <v>0.04107765234704031</v>
+      </c>
+      <c r="G32">
+        <v>0.08680307710166253</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.009747381640507197</v>
+        <v>0.02807303066618848</v>
       </c>
       <c r="C33">
-        <v>-0.006551826357040122</v>
+        <v>-0.05026397184957342</v>
       </c>
       <c r="D33">
-        <v>0.04169049416091349</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.01590977579874132</v>
+      </c>
+      <c r="E33">
+        <v>-0.04595704748934184</v>
+      </c>
+      <c r="F33">
+        <v>0.01300266734510709</v>
+      </c>
+      <c r="G33">
+        <v>0.1620971541046926</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.009312157220556292</v>
+        <v>0.03970882338359846</v>
       </c>
       <c r="C34">
-        <v>0.01353686830447913</v>
+        <v>-0.05932333146733892</v>
       </c>
       <c r="D34">
-        <v>0.05580383164620819</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.004402355393765004</v>
+      </c>
+      <c r="E34">
+        <v>-0.00946792364667981</v>
+      </c>
+      <c r="F34">
+        <v>0.02010265027457655</v>
+      </c>
+      <c r="G34">
+        <v>0.09394294711044578</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01464971007247708</v>
+        <v>0.01600459224401939</v>
       </c>
       <c r="C36">
-        <v>-0.002427507636056052</v>
+        <v>-0.009652014489799944</v>
       </c>
       <c r="D36">
-        <v>0.004401055589702416</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01266382260923441</v>
+      </c>
+      <c r="E36">
+        <v>-0.01012106080245144</v>
+      </c>
+      <c r="F36">
+        <v>-0.008495443148419863</v>
+      </c>
+      <c r="G36">
+        <v>0.09255609271782855</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.01683529729865219</v>
+        <v>0.03088433983096001</v>
       </c>
       <c r="C38">
-        <v>0.02111770964578863</v>
+        <v>-0.0301276179201875</v>
       </c>
       <c r="D38">
-        <v>0.03850091931544762</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.007248197081678277</v>
+      </c>
+      <c r="E38">
+        <v>-0.008895569248885201</v>
+      </c>
+      <c r="F38">
+        <v>-0.01734796043333395</v>
+      </c>
+      <c r="G38">
+        <v>0.0878958849722869</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.009111287722729832</v>
+        <v>0.03666202345934043</v>
       </c>
       <c r="C39">
-        <v>-0.01739837865871529</v>
+        <v>-0.07966828071858989</v>
       </c>
       <c r="D39">
-        <v>0.1000843188489741</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.01184009303060195</v>
+      </c>
+      <c r="E39">
+        <v>-0.03063197809977372</v>
+      </c>
+      <c r="F39">
+        <v>0.02080671930750165</v>
+      </c>
+      <c r="G39">
+        <v>0.09000272245812009</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01459662331745734</v>
+        <v>0.01333523041174939</v>
       </c>
       <c r="C40">
-        <v>-0.002516229497668272</v>
+        <v>-0.03942762552428577</v>
       </c>
       <c r="D40">
-        <v>0.03133705869989556</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01488297210764991</v>
+      </c>
+      <c r="E40">
+        <v>-0.03288767323347147</v>
+      </c>
+      <c r="F40">
+        <v>-0.01022882269554908</v>
+      </c>
+      <c r="G40">
+        <v>0.1241639318661233</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.01455451121983198</v>
+        <v>0.02053030023412906</v>
       </c>
       <c r="C41">
-        <v>0.006622886254460915</v>
+        <v>-0.002885549966423917</v>
       </c>
       <c r="D41">
-        <v>-0.00954857473334894</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.004541909810770701</v>
+      </c>
+      <c r="E41">
+        <v>-0.008137408940609351</v>
+      </c>
+      <c r="F41">
+        <v>-0.01556582867154252</v>
+      </c>
+      <c r="G41">
+        <v>0.08560944332412733</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.04375848915921415</v>
+        <v>0.009711162530794142</v>
       </c>
       <c r="C42">
-        <v>-0.08341930307239855</v>
+        <v>-0.03220145427242738</v>
       </c>
       <c r="D42">
-        <v>0.1298443882100214</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.08910261626157294</v>
+      </c>
+      <c r="E42">
+        <v>-0.01651663367005355</v>
+      </c>
+      <c r="F42">
+        <v>-0.03973789791967043</v>
+      </c>
+      <c r="G42">
+        <v>-0.02172249716668006</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.01549672246086033</v>
+        <v>0.03496333935831877</v>
       </c>
       <c r="C43">
-        <v>0.006323592933360866</v>
+        <v>-0.01841271450595083</v>
       </c>
       <c r="D43">
-        <v>-0.0110452397825074</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.006011436213734783</v>
+      </c>
+      <c r="E43">
+        <v>-0.02158362319124501</v>
+      </c>
+      <c r="F43">
+        <v>-0.0079127316043879</v>
+      </c>
+      <c r="G43">
+        <v>0.1194537654054773</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.0005320070412097735</v>
+        <v>0.01359951090474417</v>
       </c>
       <c r="C44">
-        <v>-0.002847862975045278</v>
+        <v>-0.05935485164439065</v>
       </c>
       <c r="D44">
-        <v>0.04965003167719162</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.007097392404491201</v>
+      </c>
+      <c r="E44">
+        <v>-0.0263211400223278</v>
+      </c>
+      <c r="F44">
+        <v>-0.005861135535027436</v>
+      </c>
+      <c r="G44">
+        <v>0.1105935028646507</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.007676166780619412</v>
+        <v>0.008408963842815687</v>
       </c>
       <c r="C46">
-        <v>-0.006207831325030576</v>
+        <v>-0.01457822023300502</v>
       </c>
       <c r="D46">
-        <v>-0.005633508157013737</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01267375364106696</v>
+      </c>
+      <c r="E46">
+        <v>-0.002440005450991712</v>
+      </c>
+      <c r="F46">
+        <v>-0.01683159795779335</v>
+      </c>
+      <c r="G46">
+        <v>0.1069800888942609</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.02383679789636345</v>
+        <v>0.0777319641167092</v>
       </c>
       <c r="C47">
-        <v>0.01901698460089932</v>
+        <v>-0.06918096643888845</v>
       </c>
       <c r="D47">
-        <v>0.07286850502485188</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.004816340482101051</v>
+      </c>
+      <c r="E47">
+        <v>0.005844060273985142</v>
+      </c>
+      <c r="F47">
+        <v>-0.05381666665115078</v>
+      </c>
+      <c r="G47">
+        <v>0.0834990529131213</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.008729536174221508</v>
+        <v>0.01854460270916815</v>
       </c>
       <c r="C48">
-        <v>0.005035689271199592</v>
+        <v>-0.01311939248256004</v>
       </c>
       <c r="D48">
-        <v>0.0154461418743311</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.002401657907485759</v>
+      </c>
+      <c r="E48">
+        <v>-0.006768247509024937</v>
+      </c>
+      <c r="F48">
+        <v>-0.01986314623255718</v>
+      </c>
+      <c r="G48">
+        <v>0.09861336893882557</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.0334436276257721</v>
+        <v>0.07535039260502685</v>
       </c>
       <c r="C50">
-        <v>0.0238993733302795</v>
+        <v>-0.07181530605191092</v>
       </c>
       <c r="D50">
-        <v>0.0664653770869299</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.002164119928987674</v>
+      </c>
+      <c r="E50">
+        <v>0.003291924752834498</v>
+      </c>
+      <c r="F50">
+        <v>-0.05511650968085969</v>
+      </c>
+      <c r="G50">
+        <v>0.09299789253840618</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.00830889247610943</v>
+        <v>0.01459008404133254</v>
       </c>
       <c r="C51">
-        <v>-0.0004202947283384295</v>
+        <v>-0.03722111443984368</v>
       </c>
       <c r="D51">
-        <v>0.02563447257608837</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01039739213563737</v>
+      </c>
+      <c r="E51">
+        <v>-0.02908498286308905</v>
+      </c>
+      <c r="F51">
+        <v>0.01870222073721063</v>
+      </c>
+      <c r="G51">
+        <v>0.1250838870166675</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.03896639149465123</v>
+        <v>0.08172303991338553</v>
       </c>
       <c r="C53">
-        <v>0.02755292248323777</v>
+        <v>-0.08456750921861893</v>
       </c>
       <c r="D53">
-        <v>0.123864560896024</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.003444600652794408</v>
+      </c>
+      <c r="E53">
+        <v>0.02548800980046529</v>
+      </c>
+      <c r="F53">
+        <v>-0.06303472384322401</v>
+      </c>
+      <c r="G53">
+        <v>0.09246056623208265</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.01708900858323608</v>
+        <v>0.03140542462234638</v>
       </c>
       <c r="C54">
-        <v>0.0160253725130364</v>
+        <v>-0.0185126331843483</v>
       </c>
       <c r="D54">
-        <v>-0.00334774888804608</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.001165579139482825</v>
+      </c>
+      <c r="E54">
+        <v>-0.01995601006001767</v>
+      </c>
+      <c r="F54">
+        <v>-0.006777533139647904</v>
+      </c>
+      <c r="G54">
+        <v>0.1073303664251546</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.02176023521229869</v>
+        <v>0.07182822540671173</v>
       </c>
       <c r="C55">
-        <v>0.01649628639352317</v>
+        <v>-0.06775654313730148</v>
       </c>
       <c r="D55">
-        <v>0.09889615378061799</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.005038882713712685</v>
+      </c>
+      <c r="E55">
+        <v>0.02361070488567265</v>
+      </c>
+      <c r="F55">
+        <v>-0.06374556216245239</v>
+      </c>
+      <c r="G55">
+        <v>0.06907090518682699</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.04451064980442672</v>
+        <v>0.135838123613304</v>
       </c>
       <c r="C56">
-        <v>0.0358625497321769</v>
+        <v>-0.1079106146307381</v>
       </c>
       <c r="D56">
-        <v>0.1563577553234888</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01244663348603421</v>
+      </c>
+      <c r="E56">
+        <v>0.03421580409783067</v>
+      </c>
+      <c r="F56">
+        <v>-0.07972711876731337</v>
+      </c>
+      <c r="G56">
+        <v>0.04386171520142703</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02016830197738702</v>
+        <v>0.006030743675203011</v>
       </c>
       <c r="C57">
-        <v>-0.01313765257443905</v>
+        <v>-0.006701857436143916</v>
       </c>
       <c r="D57">
-        <v>0.0315884782338991</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.02282117463511051</v>
+      </c>
+      <c r="E57">
+        <v>-0.02525498594360131</v>
+      </c>
+      <c r="F57">
+        <v>0.00608173458031247</v>
+      </c>
+      <c r="G57">
+        <v>0.02357492086325379</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.02238642550698054</v>
+        <v>0.05182489805089779</v>
       </c>
       <c r="C58">
-        <v>0.01329435115147301</v>
+        <v>-0.04234574185140742</v>
       </c>
       <c r="D58">
-        <v>0.122082472527171</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.02121179622448141</v>
+      </c>
+      <c r="E58">
+        <v>-0.9014313205686804</v>
+      </c>
+      <c r="F58">
+        <v>-0.2971362636081524</v>
+      </c>
+      <c r="G58">
+        <v>-0.2401959009034399</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.2144627101481023</v>
+        <v>0.1602862682343812</v>
       </c>
       <c r="C59">
-        <v>0.149879137624666</v>
+        <v>0.2060611532928403</v>
       </c>
       <c r="D59">
-        <v>-0.1153563583719875</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.01176448912824091</v>
+      </c>
+      <c r="E59">
+        <v>-0.02017281089359532</v>
+      </c>
+      <c r="F59">
+        <v>-0.002402872137600551</v>
+      </c>
+      <c r="G59">
+        <v>0.04244121042079025</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.1896093432017994</v>
+        <v>0.2882346125467946</v>
       </c>
       <c r="C60">
-        <v>0.1097569012593991</v>
+        <v>-0.1104837691765367</v>
       </c>
       <c r="D60">
-        <v>0.1605116874109152</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.01188093505817505</v>
+      </c>
+      <c r="E60">
+        <v>-0.0102098033850329</v>
+      </c>
+      <c r="F60">
+        <v>0.3388320713285023</v>
+      </c>
+      <c r="G60">
+        <v>-0.1594739217127136</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.003339381535470784</v>
+        <v>0.03891555022766528</v>
       </c>
       <c r="C61">
-        <v>-0.001667526949879263</v>
+        <v>-0.06573872592167038</v>
       </c>
       <c r="D61">
-        <v>0.07558616906588893</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.005652692276417634</v>
+      </c>
+      <c r="E61">
+        <v>-0.02495108554109553</v>
+      </c>
+      <c r="F61">
+        <v>0.01208776180968051</v>
+      </c>
+      <c r="G61">
+        <v>0.09722068113217659</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.006174671019751568</v>
+        <v>0.01503647211961397</v>
       </c>
       <c r="C63">
-        <v>-0.004483706630882434</v>
+        <v>-0.03003270259260566</v>
       </c>
       <c r="D63">
-        <v>0.02535835507772122</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.008692557619207742</v>
+      </c>
+      <c r="E63">
+        <v>-0.006567560552175128</v>
+      </c>
+      <c r="F63">
+        <v>-0.01508423195048908</v>
+      </c>
+      <c r="G63">
+        <v>0.09455693743457733</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.02703210758382612</v>
+        <v>0.04937667686837844</v>
       </c>
       <c r="C64">
-        <v>0.01253827821912178</v>
+        <v>-0.04816324929069399</v>
       </c>
       <c r="D64">
-        <v>0.05774827717706297</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.006543938572403365</v>
+      </c>
+      <c r="E64">
+        <v>-0.008940395160082399</v>
+      </c>
+      <c r="F64">
+        <v>0.006146589179706935</v>
+      </c>
+      <c r="G64">
+        <v>0.09990254263863893</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.03061601695033623</v>
+        <v>0.0749301311135088</v>
       </c>
       <c r="C65">
-        <v>0.0004320253989817639</v>
+        <v>-0.05765409015293742</v>
       </c>
       <c r="D65">
-        <v>0.1147427684113169</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.01680842403423562</v>
+      </c>
+      <c r="E65">
+        <v>-0.04260003301227382</v>
+      </c>
+      <c r="F65">
+        <v>0.02649793610821507</v>
+      </c>
+      <c r="G65">
+        <v>0.04476867738414114</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.005728114789213437</v>
+        <v>0.05091948012487738</v>
       </c>
       <c r="C66">
-        <v>-0.01458545249858278</v>
+        <v>-0.1066154268368678</v>
       </c>
       <c r="D66">
-        <v>0.1414405401910283</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.01186992979735102</v>
+      </c>
+      <c r="E66">
+        <v>-0.04304269169339048</v>
+      </c>
+      <c r="F66">
+        <v>0.03175857162001004</v>
+      </c>
+      <c r="G66">
+        <v>0.105168615612677</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.03746199625185792</v>
+        <v>0.05381112478350755</v>
       </c>
       <c r="C67">
-        <v>0.03149007553558913</v>
+        <v>-0.03368453773932725</v>
       </c>
       <c r="D67">
-        <v>0.05846498692384239</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.005813976319632769</v>
+      </c>
+      <c r="E67">
+        <v>0.000989092203312622</v>
+      </c>
+      <c r="F67">
+        <v>-0.01632068654950318</v>
+      </c>
+      <c r="G67">
+        <v>0.07523153348207119</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.2185319725742219</v>
+        <v>0.1557332149920772</v>
       </c>
       <c r="C68">
-        <v>0.1293174391955199</v>
+        <v>0.2696833139466651</v>
       </c>
       <c r="D68">
-        <v>-0.177980419639873</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.005401050318800342</v>
+      </c>
+      <c r="E68">
+        <v>-0.01130964440337235</v>
+      </c>
+      <c r="F68">
+        <v>-0.03774840327050395</v>
+      </c>
+      <c r="G68">
+        <v>0.03058748186748331</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.03098415946884614</v>
+        <v>0.08240835703687727</v>
       </c>
       <c r="C69">
-        <v>0.0286914858540398</v>
+        <v>-0.07036088713273339</v>
       </c>
       <c r="D69">
-        <v>0.07515685814510335</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.008788495982363861</v>
+      </c>
+      <c r="E69">
+        <v>0.01979415982852873</v>
+      </c>
+      <c r="F69">
+        <v>-0.03699540729848701</v>
+      </c>
+      <c r="G69">
+        <v>0.1018531718299337</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1770389968521524</v>
+        <v>0.1414812877825323</v>
       </c>
       <c r="C71">
-        <v>0.1123910136249955</v>
+        <v>0.2289879882810305</v>
       </c>
       <c r="D71">
-        <v>-0.1226604272647498</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.003055562091395894</v>
+      </c>
+      <c r="E71">
+        <v>-0.03123534491588517</v>
+      </c>
+      <c r="F71">
+        <v>-0.02811733039223403</v>
+      </c>
+      <c r="G71">
+        <v>0.07135633512115758</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.01499916170987937</v>
+        <v>0.08511557058994101</v>
       </c>
       <c r="C72">
-        <v>0.01767747675010462</v>
+        <v>-0.06898279152392603</v>
       </c>
       <c r="D72">
-        <v>0.1080748526456255</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.008183981975778742</v>
+      </c>
+      <c r="E72">
+        <v>0.008401004204076993</v>
+      </c>
+      <c r="F72">
+        <v>0.03285519963485764</v>
+      </c>
+      <c r="G72">
+        <v>0.08863594904385469</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.2328582452875139</v>
+        <v>0.376926661997186</v>
       </c>
       <c r="C73">
-        <v>0.1286420148369977</v>
+        <v>-0.1175611783387524</v>
       </c>
       <c r="D73">
-        <v>0.289698234949531</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.0209579056569651</v>
+      </c>
+      <c r="E73">
+        <v>-0.09357788239459597</v>
+      </c>
+      <c r="F73">
+        <v>0.5808311503178187</v>
+      </c>
+      <c r="G73">
+        <v>-0.2904256249381569</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.04683356168925441</v>
+        <v>0.1043472354100826</v>
       </c>
       <c r="C74">
-        <v>0.03949004599536316</v>
+        <v>-0.1091348238603274</v>
       </c>
       <c r="D74">
-        <v>0.1673619878290245</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.0092854962424664</v>
+      </c>
+      <c r="E74">
+        <v>0.007970455469293891</v>
+      </c>
+      <c r="F74">
+        <v>-0.06806007086760907</v>
+      </c>
+      <c r="G74">
+        <v>0.08249779235533944</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.1147959148624874</v>
+        <v>0.2475183873579394</v>
       </c>
       <c r="C75">
-        <v>0.09196969479480364</v>
+        <v>-0.152660650880686</v>
       </c>
       <c r="D75">
-        <v>0.2997261025001308</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03087437251068432</v>
+      </c>
+      <c r="E75">
+        <v>0.07221845085619213</v>
+      </c>
+      <c r="F75">
+        <v>-0.1632096398963591</v>
+      </c>
+      <c r="G75">
+        <v>-0.0195635887072612</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.05385512539030661</v>
+        <v>0.1176156548918496</v>
       </c>
       <c r="C76">
-        <v>0.05042073865624932</v>
+        <v>-0.1085560245557221</v>
       </c>
       <c r="D76">
-        <v>0.1963033629265894</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.01744112573623168</v>
+      </c>
+      <c r="E76">
+        <v>0.02699946398232906</v>
+      </c>
+      <c r="F76">
+        <v>-0.09789364285981862</v>
+      </c>
+      <c r="G76">
+        <v>0.05758853386772694</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01696763172129693</v>
+        <v>0.07100967594406976</v>
       </c>
       <c r="C77">
-        <v>1.912861555703633e-05</v>
+        <v>-0.0620615043863197</v>
       </c>
       <c r="D77">
-        <v>0.08025873397464262</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.01037197459528427</v>
+      </c>
+      <c r="E77">
+        <v>-0.05157143192948222</v>
+      </c>
+      <c r="F77">
+        <v>0.01234618665887655</v>
+      </c>
+      <c r="G77">
+        <v>0.06479695041494611</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.00866512430778924</v>
+        <v>0.04277226593774624</v>
       </c>
       <c r="C78">
-        <v>0.001558834587401565</v>
+        <v>-0.04910134745577826</v>
       </c>
       <c r="D78">
-        <v>0.06503490441208919</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.005850538182101493</v>
+      </c>
+      <c r="E78">
+        <v>-0.03159890358864497</v>
+      </c>
+      <c r="F78">
+        <v>0.03409742013173508</v>
+      </c>
+      <c r="G78">
+        <v>0.1039260609085412</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-6.395282244198313e-05</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-0.0003999630391556284</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-9.163701591484914e-05</v>
+      </c>
+      <c r="E79">
+        <v>-0.001623927293067063</v>
+      </c>
+      <c r="F79">
+        <v>0.0005704601301054657</v>
+      </c>
+      <c r="G79">
+        <v>0.0005263467128200955</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.03439573356525848</v>
+        <v>0.0427945601757807</v>
       </c>
       <c r="C80">
-        <v>0.009651923406901335</v>
+        <v>-0.05135590591833353</v>
       </c>
       <c r="D80">
-        <v>0.07216216022129308</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01325089072576291</v>
+      </c>
+      <c r="E80">
+        <v>-0.02727389805486791</v>
+      </c>
+      <c r="F80">
+        <v>0.01057243376575864</v>
+      </c>
+      <c r="G80">
+        <v>0.05199314982522196</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.06481484584793482</v>
+        <v>0.1367900732214897</v>
       </c>
       <c r="C81">
-        <v>0.05081693778918404</v>
+        <v>-0.09708623773350722</v>
       </c>
       <c r="D81">
-        <v>0.162355660942708</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01459587422101987</v>
+      </c>
+      <c r="E81">
+        <v>0.03691098020708287</v>
+      </c>
+      <c r="F81">
+        <v>-0.1253706303704142</v>
+      </c>
+      <c r="G81">
+        <v>0.01990389806393828</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.1363725331791537</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.08279250875345269</v>
       </c>
       <c r="D82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.01011007986078486</v>
+      </c>
+      <c r="E82">
+        <v>0.1060381730926758</v>
+      </c>
+      <c r="F82">
+        <v>-0.05657894434958726</v>
+      </c>
+      <c r="G82">
+        <v>0.05776150692951428</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.01348693593781721</v>
+        <v>0.03619836840662156</v>
       </c>
       <c r="C83">
-        <v>0.004330872522155715</v>
+        <v>-0.02854581722686721</v>
       </c>
       <c r="D83">
-        <v>0.02305042764719971</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.006077708634483208</v>
+      </c>
+      <c r="E83">
+        <v>-0.03212398866129371</v>
+      </c>
+      <c r="F83">
+        <v>0.02811033444483492</v>
+      </c>
+      <c r="G83">
+        <v>0.06286584316056926</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.09710911241915227</v>
+        <v>0.2102950543489417</v>
       </c>
       <c r="C85">
-        <v>0.06514350565424097</v>
+        <v>-0.1468872971026843</v>
       </c>
       <c r="D85">
-        <v>0.2613134495476019</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01677785269809471</v>
+      </c>
+      <c r="E85">
+        <v>0.1053367789289963</v>
+      </c>
+      <c r="F85">
+        <v>-0.1103850621123169</v>
+      </c>
+      <c r="G85">
+        <v>-0.06178844976439147</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.01586607143354173</v>
+        <v>0.01378596304199089</v>
       </c>
       <c r="C86">
-        <v>0.005058897766356976</v>
+        <v>-0.0247996669035243</v>
       </c>
       <c r="D86">
-        <v>0.03743919172263701</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.01155561131125345</v>
+      </c>
+      <c r="E86">
+        <v>-0.05364610549946798</v>
+      </c>
+      <c r="F86">
+        <v>0.01590850486643846</v>
+      </c>
+      <c r="G86">
+        <v>0.1931805869675216</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.00345040861480413</v>
+        <v>0.02161380620271708</v>
       </c>
       <c r="C87">
-        <v>-0.01244151193412581</v>
+        <v>-0.01916413859781475</v>
       </c>
       <c r="D87">
-        <v>0.03068402617156111</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.0119639290072933</v>
+      </c>
+      <c r="E87">
+        <v>-0.0978466174268969</v>
+      </c>
+      <c r="F87">
+        <v>0.004893550756870715</v>
+      </c>
+      <c r="G87">
+        <v>0.1210454530058166</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.05010524523490182</v>
+        <v>0.09387615593042366</v>
       </c>
       <c r="C88">
-        <v>0.006549012436402393</v>
+        <v>-0.06892803703714862</v>
       </c>
       <c r="D88">
-        <v>0.04212691500192555</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02233736595892732</v>
+      </c>
+      <c r="E88">
+        <v>0.004353362162843613</v>
+      </c>
+      <c r="F88">
+        <v>-0.02201824386669424</v>
+      </c>
+      <c r="G88">
+        <v>0.1038825713873091</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.3319756965111526</v>
+        <v>0.2329525469365409</v>
       </c>
       <c r="C89">
-        <v>0.2083042372232782</v>
+        <v>0.3681080743653079</v>
       </c>
       <c r="D89">
-        <v>-0.2127644274228415</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.0005389929735566257</v>
+      </c>
+      <c r="E89">
+        <v>0.01884941747619066</v>
+      </c>
+      <c r="F89">
+        <v>-0.02562208770988802</v>
+      </c>
+      <c r="G89">
+        <v>0.06863446825006006</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.2721413240157555</v>
+        <v>0.2078757237497556</v>
       </c>
       <c r="C90">
-        <v>0.1747030643505307</v>
+        <v>0.3170797439816699</v>
       </c>
       <c r="D90">
-        <v>-0.1904699110311395</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.004893500695248266</v>
+      </c>
+      <c r="E90">
+        <v>-0.000118894430351308</v>
+      </c>
+      <c r="F90">
+        <v>-0.04575479600699625</v>
+      </c>
+      <c r="G90">
+        <v>0.04280092979146396</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.09580114627304227</v>
+        <v>0.1843263976858016</v>
       </c>
       <c r="C91">
-        <v>0.07917507007397705</v>
+        <v>-0.1409113473779955</v>
       </c>
       <c r="D91">
-        <v>0.2172937220098094</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.02180603227432997</v>
+      </c>
+      <c r="E91">
+        <v>0.06602626875025912</v>
+      </c>
+      <c r="F91">
+        <v>-0.1369363473126783</v>
+      </c>
+      <c r="G91">
+        <v>0.03390140772690979</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.2303877492125758</v>
+        <v>0.1996495656064369</v>
       </c>
       <c r="C92">
-        <v>0.1836849989507108</v>
+        <v>0.2572305346464581</v>
       </c>
       <c r="D92">
-        <v>-0.09956125155618392</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.03822595825954902</v>
+      </c>
+      <c r="E92">
+        <v>-0.03753603078371255</v>
+      </c>
+      <c r="F92">
+        <v>-0.05929652764155889</v>
+      </c>
+      <c r="G92">
+        <v>0.1120637384361381</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.2911713642464026</v>
+        <v>0.2324157911504389</v>
       </c>
       <c r="C93">
-        <v>0.1931954202689189</v>
+        <v>0.312593130424851</v>
       </c>
       <c r="D93">
-        <v>-0.1603522239954711</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01164760340347251</v>
+      </c>
+      <c r="E93">
+        <v>-0.001681338987600508</v>
+      </c>
+      <c r="F93">
+        <v>-0.04519412782777917</v>
+      </c>
+      <c r="G93">
+        <v>0.0582157755550106</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1499039802529823</v>
+        <v>0.3204951833713595</v>
       </c>
       <c r="C94">
-        <v>0.09203873836624778</v>
+        <v>-0.1825921706017409</v>
       </c>
       <c r="D94">
-        <v>0.282312854955658</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.01912396061538895</v>
+      </c>
+      <c r="E94">
+        <v>0.2313062074907771</v>
+      </c>
+      <c r="F94">
+        <v>-0.4766044333082045</v>
+      </c>
+      <c r="G94">
+        <v>-0.4072211495734274</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.006182273308734654</v>
+        <v>0.1004739157826608</v>
       </c>
       <c r="C95">
-        <v>0.01299573728837257</v>
+        <v>-0.0883918407707083</v>
       </c>
       <c r="D95">
-        <v>0.1272073124866959</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.009765177602007133</v>
+      </c>
+      <c r="E95">
+        <v>-0.08870199750969138</v>
+      </c>
+      <c r="F95">
+        <v>0.1794109601537284</v>
+      </c>
+      <c r="G95">
+        <v>0.006675936135807133</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1354268064646701</v>
+        <v>0.1947450117835714</v>
       </c>
       <c r="C98">
-        <v>0.1064973181872977</v>
+        <v>-0.0451478462098361</v>
       </c>
       <c r="D98">
-        <v>0.1298689018573781</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01332233642302264</v>
+      </c>
+      <c r="E98">
+        <v>-0.07775104661687592</v>
+      </c>
+      <c r="F98">
+        <v>0.2371018295854055</v>
+      </c>
+      <c r="G98">
+        <v>-0.02729639405173383</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.008797155879430564</v>
+        <v>0.008329767319496324</v>
       </c>
       <c r="C101">
-        <v>-0.001599944143572269</v>
+        <v>-0.02260826955480109</v>
       </c>
       <c r="D101">
-        <v>0.01678856455354106</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.009262678604604517</v>
+      </c>
+      <c r="E101">
+        <v>-0.006279030364157958</v>
+      </c>
+      <c r="F101">
+        <v>-0.01522553966766569</v>
+      </c>
+      <c r="G101">
+        <v>0.09810279726022447</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.05777963856586226</v>
+        <v>0.1141997723119736</v>
       </c>
       <c r="C102">
-        <v>0.03039892806410122</v>
+        <v>-0.08364243743367873</v>
       </c>
       <c r="D102">
-        <v>0.1341179287547667</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.00109419459834493</v>
+      </c>
+      <c r="E102">
+        <v>0.03445857419126103</v>
+      </c>
+      <c r="F102">
+        <v>-0.03826666517637599</v>
+      </c>
+      <c r="G102">
+        <v>0.01286273215620705</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.5462101518005404</v>
+        <v>0.02126932773377046</v>
       </c>
       <c r="C104">
-        <v>-0.8268224747846646</v>
+        <v>0.03060633150434395</v>
       </c>
       <c r="D104">
-        <v>-0.025623589629475</v>
+        <v>-0.9878212139281503</v>
+      </c>
+      <c r="E104">
+        <v>0.05150455472202688</v>
+      </c>
+      <c r="F104">
+        <v>-0.03336912060370956</v>
+      </c>
+      <c r="G104">
+        <v>-0.04037786113906659</v>
       </c>
     </row>
   </sheetData>
